--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.8546175240763247</v>
+        <v>5.8546175271824623</v>
       </c>
       <c r="C2">
-        <v>9.1964350308670575</v>
+        <v>9.1964350130670098</v>
       </c>
       <c r="D2">
-        <v>12.778869910674807</v>
+        <v>12.778869903281965</v>
       </c>
       <c r="E2">
-        <v>21.673512475261461</v>
+        <v>21.673512484876468</v>
       </c>
       <c r="F2">
-        <v>8.7338872805026284</v>
+        <v>8.7338872806766545</v>
       </c>
       <c r="G2">
-        <v>5.2426519960674369</v>
+        <v>5.2426519752739011</v>
       </c>
       <c r="H2">
-        <v>7.7247137601436862</v>
+        <v>7.7247137282866163</v>
       </c>
       <c r="I2">
-        <v>9.9739441730408345</v>
+        <v>9.9739441767109156</v>
       </c>
       <c r="J2">
-        <v>14.481470853595404</v>
+        <v>14.481470857375605</v>
       </c>
       <c r="K2">
-        <v>4.8385286479788761</v>
+        <v>4.8385286380207475</v>
       </c>
       <c r="L2">
-        <v>2.4509622461638685</v>
+        <v>2.4509621907687986</v>
       </c>
       <c r="M2">
-        <v>-4.1666852832963741</v>
+        <v>-4.1666853117223326</v>
       </c>
       <c r="N2">
-        <v>12.1365198581247</v>
+        <v>12.136519836258422</v>
       </c>
       <c r="O2">
-        <v>9.7931686951864307</v>
+        <v>9.7931687157311131</v>
       </c>
       <c r="P2">
-        <v>14.214701377544756</v>
+        <v>14.214701353579613</v>
       </c>
       <c r="Q2">
-        <v>2.4014194329872822</v>
+        <v>2.4014194250861038</v>
       </c>
       <c r="R2">
-        <v>-2.9033381793204711</v>
+        <v>-2.9033381510991703</v>
       </c>
       <c r="S2">
-        <v>20.277395107141118</v>
+        <v>20.277394946279358</v>
       </c>
       <c r="T2">
-        <v>16.692527642559739</v>
+        <v>16.69252764916552</v>
       </c>
       <c r="U2">
-        <v>2.9896177433156765</v>
+        <v>2.9896177297759863</v>
       </c>
       <c r="V2">
-        <v>8.7641840115914178</v>
+        <v>8.7641840096137429</v>
       </c>
       <c r="W2">
-        <v>-2.6980938567385664</v>
+        <v>-2.6980939580911922</v>
       </c>
       <c r="X2">
-        <v>4.6021157740604934</v>
+        <v>4.6021157811288873</v>
       </c>
       <c r="Y2">
-        <v>17.201988397505161</v>
+        <v>17.201988383479438</v>
       </c>
       <c r="Z2">
-        <v>10.559233808772056</v>
+        <v>10.559233788744315</v>
       </c>
       <c r="AA2">
-        <v>25.714977147762831</v>
+        <v>25.714977229785639</v>
       </c>
       <c r="AB2">
-        <v>20.826641010058822</v>
+        <v>20.826640959497979</v>
       </c>
       <c r="AC2">
-        <v>5.5256451937306394</v>
+        <v>5.5256451593823925</v>
       </c>
       <c r="AD2">
-        <v>27.741527386078708</v>
+        <v>27.741527341227673</v>
       </c>
       <c r="AE2">
-        <v>10.836395177460801</v>
+        <v>10.83639517532449</v>
       </c>
       <c r="AF2">
-        <v>13.358190468574826</v>
+        <v>13.358190437495431</v>
       </c>
       <c r="AG2">
-        <v>15.299411051100797</v>
+        <v>15.299411008672365</v>
       </c>
       <c r="AH2">
-        <v>15.643031339555797</v>
+        <v>15.643031316784551</v>
       </c>
       <c r="AI2">
-        <v>20.523660681932583</v>
+        <v>20.523660509865266</v>
       </c>
       <c r="AJ2">
-        <v>11.892529645401474</v>
+        <v>11.892529609686591</v>
       </c>
       <c r="AK2">
-        <v>14.7728965154081</v>
+        <v>14.772896495127192</v>
       </c>
       <c r="AL2">
-        <v>2.4584489822703404</v>
+        <v>2.4584489422109073</v>
       </c>
       <c r="AM2">
-        <v>16.976148482673594</v>
+        <v>16.976148379153372</v>
       </c>
       <c r="AN2">
-        <v>13.08842972477165</v>
+        <v>13.088429686413811</v>
       </c>
       <c r="AO2">
-        <v>24.234041068313282</v>
+        <v>24.234041190175326</v>
       </c>
       <c r="AP2">
-        <v>15.839422738776591</v>
+        <v>15.839422708934961</v>
       </c>
       <c r="AQ2">
-        <v>4.4502761419344807</v>
+        <v>4.450276064155851</v>
       </c>
       <c r="AR2">
-        <v>22.968801115360328</v>
+        <v>22.968801162995398</v>
       </c>
       <c r="AS2">
-        <v>25.398589268376973</v>
+        <v>25.398589190034052</v>
       </c>
       <c r="AT2">
-        <v>11.323615981591345</v>
+        <v>11.323616067783306</v>
       </c>
       <c r="AU2">
-        <v>14.280162513190142</v>
+        <v>14.280162452824953</v>
       </c>
       <c r="AV2">
-        <v>16.213080438937304</v>
+        <v>16.213080472904238</v>
       </c>
       <c r="AW2">
-        <v>7.8915058705133987</v>
+        <v>7.8915057641431261</v>
       </c>
       <c r="AX2">
-        <v>20.963256035553265</v>
+        <v>20.963255977710013</v>
       </c>
       <c r="AY2">
-        <v>23.08110463142966</v>
+        <v>23.081104589598091</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.1097213562102084</v>
+        <v>9.1097212126523104</v>
       </c>
       <c r="C3">
-        <v>9.6232284680661309</v>
+        <v>9.6232284588690717</v>
       </c>
       <c r="D3">
-        <v>15.39714249500927</v>
+        <v>15.397142414528439</v>
       </c>
       <c r="E3">
-        <v>16.538135958790804</v>
+        <v>16.538135942495217</v>
       </c>
       <c r="F3">
-        <v>6.4443284570742847</v>
+        <v>6.4443284374834562</v>
       </c>
       <c r="G3">
-        <v>13.17326000746246</v>
+        <v>13.17325999106481</v>
       </c>
       <c r="H3">
-        <v>1.8686165935692429</v>
+        <v>1.8686166034717999</v>
       </c>
       <c r="I3">
-        <v>4.783686104288897</v>
+        <v>4.7836860911754826</v>
       </c>
       <c r="J3">
-        <v>18.230153505448826</v>
+        <v>18.230153459517524</v>
       </c>
       <c r="K3">
-        <v>24.741915475951593</v>
+        <v>24.741915470448269</v>
       </c>
       <c r="L3">
-        <v>16.42319622952197</v>
+        <v>16.42319620393237</v>
       </c>
       <c r="M3">
-        <v>3.2519507206371188</v>
+        <v>3.25154045308782</v>
       </c>
       <c r="N3">
-        <v>10.834866840123794</v>
+        <v>10.83486683656362</v>
       </c>
       <c r="O3">
-        <v>-8.7087475948242457</v>
+        <v>-8.708747596954403</v>
       </c>
       <c r="P3">
-        <v>16.433487822896247</v>
+        <v>16.433487783945857</v>
       </c>
       <c r="Q3">
-        <v>7.8220865537154722</v>
+        <v>7.8220865199771339</v>
       </c>
       <c r="R3">
-        <v>3.9959298616963324</v>
+        <v>3.9959297561476745</v>
       </c>
       <c r="S3">
-        <v>17.744521159832708</v>
+        <v>17.744521129285339</v>
       </c>
       <c r="T3">
-        <v>17.241718602120507</v>
+        <v>17.241718575640128</v>
       </c>
       <c r="U3">
-        <v>10.398900775283835</v>
+        <v>10.398900746746428</v>
       </c>
       <c r="V3">
-        <v>10.801040300255508</v>
+        <v>10.801040307142891</v>
       </c>
       <c r="W3">
-        <v>2.2069221025055512</v>
+        <v>2.2069220586947083</v>
       </c>
       <c r="X3">
-        <v>-0.59828007690688878</v>
+        <v>-0.59828009080899847</v>
       </c>
       <c r="Y3">
-        <v>20.67169091942656</v>
+        <v>20.671690875869281</v>
       </c>
       <c r="Z3">
-        <v>12.716559690637652</v>
+        <v>12.716559671248504</v>
       </c>
       <c r="AA3">
-        <v>23.843954536505827</v>
+        <v>23.843954553042572</v>
       </c>
       <c r="AB3">
-        <v>20.365526509837387</v>
+        <v>20.365526463850195</v>
       </c>
       <c r="AC3">
-        <v>21.370108052406991</v>
+        <v>21.370107961949756</v>
       </c>
       <c r="AD3">
-        <v>28.556274328750938</v>
+        <v>28.556274207779346</v>
       </c>
       <c r="AE3">
-        <v>17.540607925956074</v>
+        <v>17.540607836436898</v>
       </c>
       <c r="AF3">
-        <v>14.85260461135271</v>
+        <v>14.852604549695023</v>
       </c>
       <c r="AG3">
-        <v>11.3997553845984</v>
+        <v>11.399755348356337</v>
       </c>
       <c r="AH3">
-        <v>10.08313127384438</v>
+        <v>10.083131244747683</v>
       </c>
       <c r="AI3">
-        <v>43.08055305812546</v>
+        <v>43.080552008094088</v>
       </c>
       <c r="AJ3">
-        <v>24.988187426168594</v>
+        <v>24.98818735021716</v>
       </c>
       <c r="AK3">
-        <v>20.370865031387332</v>
+        <v>20.37086487429098</v>
       </c>
       <c r="AL3">
-        <v>13.547371261496579</v>
+        <v>13.54737119902677</v>
       </c>
       <c r="AM3">
-        <v>18.132675839456475</v>
+        <v>18.13267575692705</v>
       </c>
       <c r="AN3">
-        <v>-2.0525080057211085</v>
+        <v>-2.0525080245904945</v>
       </c>
       <c r="AO3">
-        <v>25.946865771091474</v>
+        <v>25.946865592939808</v>
       </c>
       <c r="AP3">
-        <v>7.8795502837679123</v>
+        <v>7.8795502490331515</v>
       </c>
       <c r="AQ3">
-        <v>11.343542184132112</v>
+        <v>11.343542145495121</v>
       </c>
       <c r="AR3">
-        <v>26.683386599113945</v>
+        <v>26.683386646157032</v>
       </c>
       <c r="AS3">
-        <v>18.982379273880575</v>
+        <v>18.982379290466376</v>
       </c>
       <c r="AT3">
-        <v>17.073347499142145</v>
+        <v>17.073347426356762</v>
       </c>
       <c r="AU3">
-        <v>11.08946109269349</v>
+        <v>11.089460995748254</v>
       </c>
       <c r="AV3">
-        <v>12.232759803980294</v>
+        <v>12.232759711688104</v>
       </c>
       <c r="AW3">
-        <v>11.646363602335313</v>
+        <v>11.646362798684187</v>
       </c>
       <c r="AX3">
-        <v>11.674867413850961</v>
+        <v>11.674867219869789</v>
       </c>
       <c r="AY3">
-        <v>25.320962222597444</v>
+        <v>25.320962180953003</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>5.8546175271824623</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>9.1964350130670098</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>12.778869903281965</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>21.673512484876468</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.7338872806766545</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5.2426519752739011</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>7.7247137282866163</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>9.9739441767109156</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>14.481470857375605</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.8385286380207475</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.4509621907687986</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-4.1666853117223326</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.136519836258422</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.7931687157311131</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.214701353579613</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.4014194250861038</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-2.9033381510991703</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>20.277394946279358</v>
+        <v>12.108360115620016</v>
       </c>
       <c r="T2">
         <v>16.69252764916552</v>
@@ -588,55 +477,55 @@
         <v>10.559233788744315</v>
       </c>
       <c r="AA2">
-        <v>25.714977229785639</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>20.826640959497979</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.5256451593823925</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>27.741527341227673</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>10.83639517532449</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>13.358190437495431</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>15.299411008672365</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>15.643031316784551</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>20.523660509865266</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>11.892529609686591</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>14.772896495127192</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>2.4584489422109073</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>16.976148379153372</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>13.088429686413811</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>24.234041190175326</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>15.839422708934961</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>4.450276064155851</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>22.968801162995398</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>9.1097212126523104</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>9.6232284588690717</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>15.397142414528439</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>16.538135942495217</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>6.4443284374834562</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>13.17325999106481</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.8686166034717999</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.7836860911754826</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>18.230153459517524</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>24.741915470448269</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>16.42319620393237</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.25154045308782</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>10.83486683656362</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-8.708747596954403</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>16.433487783945857</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>7.8220865199771339</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>3.9959297561476745</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>17.744521129285339</v>
@@ -743,55 +629,55 @@
         <v>12.716559671248504</v>
       </c>
       <c r="AA3">
-        <v>23.843954553042572</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>20.365526463850195</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>21.370107961949756</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>28.556274207779346</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>17.540607836436898</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>14.852604549695023</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>11.399755348356337</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>10.083131244747683</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>43.080552008094088</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>24.98818735021716</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>20.37086487429098</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>13.54737119902677</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>18.13267575692705</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-2.0525080245904945</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>25.946865592939808</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>7.8795502490331515</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>11.343542145495121</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>26.683386646157032</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>5.8546175240763247</v>
-      </c>
       <c r="C2">
-        <v>6.8924625789319904</v>
-      </c>
-      <c r="D2">
-        <v>12.778869910674807</v>
-      </c>
-      <c r="E2">
-        <v>21.673512475261461</v>
+        <v>-2.9033381510991703</v>
       </c>
       <c r="F2">
         <v>8.7338872805026284</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.1097213562102084</v>
+        <v>-3.105531684919832</v>
       </c>
       <c r="C3">
-        <v>9.6232284680661309</v>
+        <v>3.9959297561476745</v>
       </c>
       <c r="D3">
-        <v>15.39714249500927</v>
+        <v>-0.39966137945635438</v>
       </c>
       <c r="E3">
-        <v>16.538135958790804</v>
+        <v>11.749425093518212</v>
       </c>
       <c r="F3">
         <v>6.4443284570742847</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.8546175240763247</v>
-      </c>
-      <c r="C2">
-        <v>6.8924625789319904</v>
+        <v>11.467718355161836</v>
       </c>
       <c r="D2">
-        <v>12.778869910674807</v>
-      </c>
-      <c r="E2">
-        <v>21.673512475261461</v>
+        <v>16.976148379153372</v>
       </c>
       <c r="F2">
         <v>8.7338872805026284</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.1097213562102084</v>
+        <v>10.83486683656362</v>
       </c>
       <c r="C3">
-        <v>9.6232284680661309</v>
+        <v>-3.105531684919832</v>
       </c>
       <c r="D3">
-        <v>15.39714249500927</v>
+        <v>18.13267575692705</v>
       </c>
       <c r="E3">
-        <v>21.755681723253602</v>
+        <v>-0.39966137945635438</v>
       </c>
       <c r="F3">
         <v>6.4443284570742847</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_Fuku_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>5.8546175271824623</v>
+      </c>
+      <c r="C2">
+        <v>6.8924625095029981</v>
+      </c>
+      <c r="D2">
+        <v>12.778869903281965</v>
+      </c>
+      <c r="E2">
+        <v>21.673512484876468</v>
+      </c>
+      <c r="F2">
+        <v>8.7338872806766545</v>
+      </c>
+      <c r="G2">
+        <v>9.2894002924853183</v>
+      </c>
+      <c r="H2">
+        <v>7.7247137282866163</v>
+      </c>
+      <c r="I2">
+        <v>14.226596610033376</v>
+      </c>
+      <c r="J2">
+        <v>14.481470857375605</v>
+      </c>
+      <c r="K2">
+        <v>4.8385286380207475</v>
+      </c>
+      <c r="L2">
+        <v>5.4383186506560293</v>
+      </c>
+      <c r="M2">
+        <v>2.5244504094876277</v>
+      </c>
+      <c r="N2">
         <v>11.467718355161836</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>15.611594168718725</v>
+      </c>
+      <c r="Q2">
+        <v>2.4014194250861038</v>
+      </c>
+      <c r="R2">
+        <v>-2.9033381510991703</v>
+      </c>
+      <c r="T2">
+        <v>13.90315892338009</v>
+      </c>
+      <c r="U2">
+        <v>2.9896177297759863</v>
+      </c>
+      <c r="V2">
+        <v>12.083307207475521</v>
+      </c>
+      <c r="W2">
+        <v>-2.6980939580911922</v>
+      </c>
+      <c r="X2">
+        <v>4.6021157811288873</v>
+      </c>
+      <c r="Y2">
+        <v>17.201988383479438</v>
+      </c>
+      <c r="Z2">
+        <v>10.559233788744315</v>
+      </c>
+      <c r="AA2">
+        <v>25.714977229785639</v>
+      </c>
+      <c r="AB2">
+        <v>20.826640959497979</v>
+      </c>
+      <c r="AC2">
+        <v>5.5256451593823925</v>
+      </c>
+      <c r="AD2">
+        <v>27.741527341227673</v>
+      </c>
+      <c r="AE2">
+        <v>10.83639517532449</v>
+      </c>
+      <c r="AF2">
+        <v>13.358190437495431</v>
+      </c>
+      <c r="AG2">
+        <v>15.299411008672365</v>
+      </c>
+      <c r="AH2">
+        <v>15.643031316784551</v>
+      </c>
+      <c r="AI2">
+        <v>20.523660509865266</v>
+      </c>
+      <c r="AJ2">
+        <v>11.892529609686591</v>
+      </c>
+      <c r="AK2">
+        <v>14.772896495127192</v>
+      </c>
+      <c r="AL2">
+        <v>2.4584489422109073</v>
+      </c>
+      <c r="AM2">
         <v>16.976148379153372</v>
       </c>
-      <c r="F2">
-        <v>8.7338872805026284</v>
-      </c>
-      <c r="G2">
-        <v>9.2894003534513701</v>
-      </c>
-      <c r="H2">
-        <v>7.7247137601436862</v>
-      </c>
-      <c r="I2">
-        <v>14.226596599722406</v>
-      </c>
-      <c r="J2">
-        <v>14.481470853595404</v>
-      </c>
-      <c r="K2">
-        <v>4.8385286479788761</v>
-      </c>
-      <c r="L2">
-        <v>5.4383189725366563</v>
-      </c>
-      <c r="M2">
-        <v>2.5244504175456086</v>
-      </c>
-      <c r="N2">
-        <v>11.467718387767711</v>
-      </c>
-      <c r="P2">
-        <v>15.611594206871025</v>
-      </c>
-      <c r="Q2">
-        <v>2.4014194329872822</v>
-      </c>
-      <c r="R2">
-        <v>-2.9033381793204711</v>
-      </c>
-      <c r="T2">
-        <v>13.903158916117967</v>
-      </c>
-      <c r="U2">
-        <v>2.9896177433156765</v>
-      </c>
-      <c r="V2">
-        <v>12.083307215645505</v>
-      </c>
-      <c r="W2">
-        <v>-2.6980938567385664</v>
-      </c>
-      <c r="X2">
-        <v>4.6021157740604934</v>
-      </c>
-      <c r="Y2">
-        <v>17.201988397505161</v>
-      </c>
-      <c r="Z2">
-        <v>10.559233808772056</v>
-      </c>
-      <c r="AA2">
-        <v>25.714977147762831</v>
-      </c>
-      <c r="AB2">
-        <v>20.826641010058822</v>
-      </c>
-      <c r="AC2">
-        <v>5.5256451937306394</v>
-      </c>
-      <c r="AD2">
-        <v>27.741527386078708</v>
-      </c>
-      <c r="AE2">
-        <v>10.836395177460801</v>
-      </c>
-      <c r="AF2">
-        <v>13.358190468574826</v>
-      </c>
-      <c r="AG2">
-        <v>15.299411051100797</v>
-      </c>
-      <c r="AH2">
-        <v>15.643031339555797</v>
-      </c>
-      <c r="AI2">
-        <v>20.523660681932583</v>
-      </c>
-      <c r="AJ2">
-        <v>11.892529645401474</v>
-      </c>
-      <c r="AK2">
-        <v>14.7728965154081</v>
-      </c>
-      <c r="AL2">
-        <v>2.4584489822703404</v>
-      </c>
-      <c r="AM2">
-        <v>16.976148482673594</v>
-      </c>
       <c r="AO2">
-        <v>24.234041068313282</v>
+        <v>24.234041190175326</v>
       </c>
       <c r="AP2">
-        <v>17.981653838789612</v>
+        <v>17.98165379953069</v>
       </c>
       <c r="AR2">
-        <v>22.968801115360328</v>
+        <v>22.968801162995398</v>
       </c>
       <c r="AS2">
-        <v>25.398589268376973</v>
+        <v>25.398589190034052</v>
       </c>
       <c r="AT2">
-        <v>11.323615981591345</v>
+        <v>11.323616067783306</v>
       </c>
       <c r="AU2">
-        <v>8.2109278826640448</v>
+        <v>8.2109277479154059</v>
       </c>
       <c r="AV2">
-        <v>16.213080438937304</v>
+        <v>16.213080472904238</v>
       </c>
       <c r="AW2">
-        <v>7.8915058705133987</v>
+        <v>7.8915057641431261</v>
       </c>
       <c r="AX2">
-        <v>20.963256035553265</v>
+        <v>20.963255977710013</v>
       </c>
       <c r="AY2">
-        <v>23.08110463142966</v>
+        <v>23.081104589598091</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>9.1097212126523104</v>
+      </c>
+      <c r="C3">
+        <v>9.6232284588690717</v>
+      </c>
+      <c r="D3">
+        <v>15.397142414528439</v>
+      </c>
+      <c r="E3">
+        <v>21.755681687294569</v>
+      </c>
+      <c r="F3">
+        <v>6.4443284374834562</v>
+      </c>
+      <c r="G3">
+        <v>13.17325999106481</v>
+      </c>
+      <c r="H3">
+        <v>1.8686166034717999</v>
+      </c>
+      <c r="I3">
+        <v>4.7836860911754826</v>
+      </c>
+      <c r="J3">
+        <v>18.230153459517524</v>
+      </c>
+      <c r="K3">
+        <v>21.57548707738016</v>
+      </c>
+      <c r="L3">
+        <v>16.42319620393237</v>
+      </c>
+      <c r="M3">
+        <v>0.1159897385338482</v>
+      </c>
+      <c r="N3">
         <v>10.83486683656362</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-3.105531684919832</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>16.433487783945857</v>
+      </c>
+      <c r="Q3">
+        <v>7.8220865199771339</v>
+      </c>
+      <c r="R3">
+        <v>3.9959297561476745</v>
+      </c>
+      <c r="S3">
+        <v>17.744521129285339</v>
+      </c>
+      <c r="T3">
+        <v>17.241718575640128</v>
+      </c>
+      <c r="U3">
+        <v>10.398900746746428</v>
+      </c>
+      <c r="V3">
+        <v>12.609255958649356</v>
+      </c>
+      <c r="W3">
+        <v>2.2365538843280817</v>
+      </c>
+      <c r="X3">
+        <v>-0.59828009080899847</v>
+      </c>
+      <c r="Y3">
+        <v>20.671690875869281</v>
+      </c>
+      <c r="Z3">
+        <v>12.716559671248504</v>
+      </c>
+      <c r="AA3">
+        <v>23.843954553042572</v>
+      </c>
+      <c r="AB3">
+        <v>20.365526463850195</v>
+      </c>
+      <c r="AC3">
+        <v>21.370107961949756</v>
+      </c>
+      <c r="AD3">
+        <v>28.556274207779346</v>
+      </c>
+      <c r="AE3">
+        <v>17.540607836436898</v>
+      </c>
+      <c r="AF3">
+        <v>14.852604549695023</v>
+      </c>
+      <c r="AG3">
+        <v>11.399755348356337</v>
+      </c>
+      <c r="AH3">
+        <v>10.083131244747683</v>
+      </c>
+      <c r="AI3">
+        <v>20.777728669444571</v>
+      </c>
+      <c r="AJ3">
+        <v>24.98818735021716</v>
+      </c>
+      <c r="AK3">
+        <v>20.37086487429098</v>
+      </c>
+      <c r="AL3">
+        <v>13.54737119902677</v>
+      </c>
+      <c r="AM3">
         <v>18.13267575692705</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-0.39966137945635438</v>
       </c>
-      <c r="F3">
-        <v>6.4443284570742847</v>
-      </c>
-      <c r="G3">
-        <v>13.17326000746246</v>
-      </c>
-      <c r="H3">
-        <v>1.8686165935692429</v>
-      </c>
-      <c r="I3">
-        <v>4.783686104288897</v>
-      </c>
-      <c r="J3">
-        <v>18.230153505448826</v>
-      </c>
-      <c r="K3">
-        <v>21.575487079739617</v>
-      </c>
-      <c r="L3">
-        <v>16.42319622952197</v>
-      </c>
-      <c r="M3">
-        <v>0.11616534872250384</v>
-      </c>
-      <c r="N3">
-        <v>10.834866840123794</v>
-      </c>
-      <c r="O3">
-        <v>-3.1055316831356237</v>
-      </c>
-      <c r="P3">
-        <v>16.433487822896247</v>
-      </c>
-      <c r="Q3">
-        <v>7.8220865537154722</v>
-      </c>
-      <c r="R3">
-        <v>3.9959298616963324</v>
-      </c>
-      <c r="S3">
-        <v>17.744521159832708</v>
-      </c>
-      <c r="T3">
-        <v>17.241718602120507</v>
-      </c>
-      <c r="U3">
-        <v>10.398900775283835</v>
-      </c>
-      <c r="V3">
-        <v>12.60925582071031</v>
-      </c>
-      <c r="W3">
-        <v>2.2365538888530736</v>
-      </c>
-      <c r="X3">
-        <v>-0.59828007690688878</v>
-      </c>
-      <c r="Y3">
-        <v>20.67169091942656</v>
-      </c>
-      <c r="Z3">
-        <v>12.716559690637652</v>
-      </c>
-      <c r="AA3">
-        <v>23.843954536505827</v>
-      </c>
-      <c r="AB3">
-        <v>20.365526509837387</v>
-      </c>
-      <c r="AC3">
-        <v>21.370108052406991</v>
-      </c>
-      <c r="AD3">
-        <v>28.556274328750938</v>
-      </c>
-      <c r="AE3">
-        <v>17.540607925956074</v>
-      </c>
-      <c r="AF3">
-        <v>14.85260461135271</v>
-      </c>
-      <c r="AG3">
-        <v>11.3997553845984</v>
-      </c>
-      <c r="AH3">
-        <v>10.08313127384438</v>
-      </c>
-      <c r="AI3">
-        <v>20.777728880918204</v>
-      </c>
-      <c r="AJ3">
-        <v>24.988187426168594</v>
-      </c>
-      <c r="AK3">
-        <v>20.370865031387332</v>
-      </c>
-      <c r="AL3">
-        <v>13.547371261496579</v>
-      </c>
-      <c r="AM3">
-        <v>18.132675839456475</v>
-      </c>
-      <c r="AN3">
-        <v>-0.39966136561955068</v>
-      </c>
       <c r="AO3">
-        <v>25.946865771091474</v>
+        <v>25.946865592939808</v>
       </c>
       <c r="AP3">
-        <v>7.8795502837679123</v>
+        <v>7.8795502490331515</v>
       </c>
       <c r="AQ3">
-        <v>11.749425119297911</v>
+        <v>11.749425093518212</v>
       </c>
       <c r="AR3">
-        <v>26.683386599113945</v>
+        <v>26.683386646157032</v>
       </c>
       <c r="AS3">
-        <v>18.982379273880575</v>
+        <v>18.982379290466376</v>
       </c>
       <c r="AT3">
-        <v>17.073347499142145</v>
+        <v>17.073347426356762</v>
       </c>
       <c r="AU3">
-        <v>11.973529951825128</v>
+        <v>11.973529684058668</v>
       </c>
       <c r="AV3">
-        <v>12.232759803980294</v>
+        <v>12.232759711688104</v>
       </c>
       <c r="AW3">
-        <v>11.646363602335313</v>
+        <v>11.646362798684187</v>
       </c>
       <c r="AX3">
-        <v>11.674867413850961</v>
+        <v>11.674867219869789</v>
       </c>
       <c r="AY3">
-        <v>25.320962222597444</v>
+        <v>25.320962180953003</v>
       </c>
     </row>
   </sheetData>
